--- a/iso_ads_r/summary/iso_ads_point.xlsx
+++ b/iso_ads_r/summary/iso_ads_point.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>hpv_alumina</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hpv_mof-303_1230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hpv_cau-10-py</t>
   </si>
   <si>
@@ -65,6 +61,18 @@
   </si>
   <si>
     <t>Zeolite_4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpv_cau-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAU-10_ITRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpv_mof-303_ntu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +111,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -138,6 +152,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -418,455 +433,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>9</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>9.52</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.6129999999999999E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.24653</v>
+      </c>
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>7.6639999999999997</v>
-      </c>
-      <c r="C2" s="4">
-        <v>9.52</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.613</v>
-      </c>
-      <c r="E2" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F2" s="4">
-        <v>24.652999999999999</v>
-      </c>
-      <c r="G2" s="4">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="H2" s="4">
-        <v>10.426</v>
+      <c r="F2" s="2">
+        <v>0.17993138899999997</v>
+      </c>
+      <c r="G2" s="7">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.9965178460390499E-2</v>
       </c>
       <c r="I2" s="2">
         <v>9.5500000000000007</v>
       </c>
       <c r="J2" s="2">
-        <v>10.375</v>
-      </c>
-      <c r="K2" s="2">
+        <v>0.10375</v>
+      </c>
+      <c r="K2" s="3">
         <v>10</v>
       </c>
       <c r="L2" s="2">
-        <v>17.993138899999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+        <v>7.664E-2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.10426000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>29.91</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.13195000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>19.62</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.30923</v>
+      </c>
+      <c r="E3" s="2">
         <v>20</v>
       </c>
-      <c r="B3" s="3">
-        <v>8.2669999999999995</v>
-      </c>
-      <c r="C3" s="4">
-        <v>29.91</v>
-      </c>
-      <c r="D3" s="4">
-        <v>13.195</v>
-      </c>
-      <c r="E3" s="4">
-        <v>19.62</v>
-      </c>
-      <c r="F3" s="4">
-        <v>30.922999999999998</v>
-      </c>
-      <c r="G3" s="4">
-        <v>29.79</v>
-      </c>
-      <c r="H3" s="4">
-        <v>11.096</v>
+      <c r="F3" s="2">
+        <v>0.290737564</v>
+      </c>
+      <c r="G3" s="7">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.0998217468805699E-2</v>
       </c>
       <c r="I3" s="2">
         <v>19.350000000000001</v>
       </c>
       <c r="J3" s="2">
-        <v>20.492000000000001</v>
-      </c>
-      <c r="K3" s="2">
+        <v>0.20492000000000002</v>
+      </c>
+      <c r="K3" s="3">
         <v>20</v>
       </c>
       <c r="L3" s="2">
-        <v>29.073756400000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+        <v>8.2669999999999993E-2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>29.79</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.11096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>40.08</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.28175</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29.95</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.32787999999999995</v>
+      </c>
+      <c r="E4" s="2">
         <v>30</v>
       </c>
-      <c r="B4" s="3">
-        <v>8.4250000000000007</v>
-      </c>
-      <c r="C4" s="4">
-        <v>40.08</v>
-      </c>
-      <c r="D4" s="4">
-        <v>28.175000000000001</v>
-      </c>
-      <c r="E4" s="4">
-        <v>29.95</v>
-      </c>
-      <c r="F4" s="4">
-        <v>32.787999999999997</v>
-      </c>
-      <c r="G4" s="4">
-        <v>50.02</v>
-      </c>
-      <c r="H4" s="4">
-        <v>11.54</v>
+      <c r="F4" s="2">
+        <v>0.301200686</v>
+      </c>
+      <c r="G4" s="7">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.25721925133689899</v>
       </c>
       <c r="I4" s="2">
         <v>30.78</v>
       </c>
       <c r="J4" s="2">
-        <v>36.572000000000003</v>
-      </c>
-      <c r="K4" s="2">
+        <v>0.36572000000000005</v>
+      </c>
+      <c r="K4" s="3">
         <v>30</v>
       </c>
       <c r="L4" s="2">
-        <v>30.1200686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+        <v>8.4250000000000005E-2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>50.02</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.11539999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>49.89</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.3332</v>
+      </c>
+      <c r="C5" s="4">
+        <v>40.18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.33576</v>
+      </c>
+      <c r="E5" s="2">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.30068610600000001</v>
+      </c>
+      <c r="G5" s="7">
         <v>40</v>
       </c>
-      <c r="B5" s="3">
-        <v>8.4510000000000005</v>
-      </c>
-      <c r="C5" s="4">
-        <v>49.89</v>
-      </c>
-      <c r="D5" s="4">
-        <v>33.32</v>
-      </c>
-      <c r="E5" s="4">
-        <v>40.18</v>
-      </c>
-      <c r="F5" s="4">
-        <v>33.576000000000001</v>
-      </c>
-      <c r="G5" s="4">
-        <v>69.88</v>
-      </c>
-      <c r="H5" s="4">
-        <v>12.12</v>
+      <c r="H5" s="2">
+        <v>0.26147695441813101</v>
       </c>
       <c r="I5" s="2">
         <v>41.23</v>
       </c>
       <c r="J5" s="2">
-        <v>40.116999999999997</v>
-      </c>
-      <c r="K5" s="2">
-        <v>35</v>
+        <v>0.40116999999999997</v>
+      </c>
+      <c r="K5" s="3">
+        <v>40</v>
       </c>
       <c r="L5" s="2">
-        <v>30.0686106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>60</v>
-      </c>
-      <c r="B6" s="3">
-        <v>9.58</v>
+        <v>8.4510000000000002E-2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>69.88</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.12119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>70.05</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.36509999999999998</v>
       </c>
       <c r="C6" s="4">
-        <v>70.05</v>
-      </c>
-      <c r="D6" s="4">
-        <v>36.51</v>
-      </c>
-      <c r="E6" s="4">
         <v>50.33</v>
       </c>
-      <c r="F6" s="4">
-        <v>34.210999999999999</v>
-      </c>
-      <c r="G6" s="4">
-        <v>89.84</v>
-      </c>
-      <c r="H6" s="4">
-        <v>12.603</v>
+      <c r="D6" s="2">
+        <v>0.34210999999999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.30291595199999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.26717328079557201</v>
       </c>
       <c r="I6" s="2">
         <v>51.21</v>
       </c>
       <c r="J6" s="2">
-        <v>40.774000000000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>40</v>
+        <v>0.40773999999999999</v>
+      </c>
+      <c r="K6" s="3">
+        <v>60</v>
       </c>
       <c r="L6" s="2">
-        <v>30.2915952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>80</v>
-      </c>
-      <c r="B7" s="3">
-        <v>12.91</v>
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>89.84</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.12603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>80.13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.40895999999999999</v>
       </c>
       <c r="C7" s="4">
-        <v>80.13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>40.896000000000001</v>
-      </c>
-      <c r="E7" s="4">
         <v>63.3</v>
       </c>
-      <c r="F7" s="4">
-        <v>34.865000000000002</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="D7" s="2">
+        <v>0.34865000000000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.302401372</v>
+      </c>
+      <c r="G7" s="7">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.27353211256954602</v>
+      </c>
       <c r="I7" s="2">
         <v>56.45</v>
       </c>
       <c r="J7" s="2">
-        <v>40.750999999999998</v>
-      </c>
-      <c r="K7" s="2">
-        <v>45</v>
+        <v>0.40750999999999998</v>
+      </c>
+      <c r="K7" s="3">
+        <v>80</v>
       </c>
       <c r="L7" s="2">
-        <v>30.240137199999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>90</v>
-      </c>
-      <c r="B8" s="3">
-        <v>18.600000000000001</v>
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>90.03</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.48718000000000006</v>
       </c>
       <c r="C8" s="4">
-        <v>90.03</v>
-      </c>
-      <c r="D8" s="4">
-        <v>48.718000000000004</v>
-      </c>
-      <c r="E8" s="4">
         <v>70.02</v>
       </c>
-      <c r="F8" s="4">
-        <v>35.229999999999997</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="D8" s="2">
+        <v>0.35229999999999995</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.308233276</v>
+      </c>
+      <c r="G8" s="7">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.27988413547237101</v>
+      </c>
       <c r="I8" s="2">
         <v>60.11</v>
       </c>
       <c r="J8" s="2">
-        <v>41.43</v>
-      </c>
-      <c r="K8" s="2">
-        <v>50</v>
+        <v>0.4143</v>
+      </c>
+      <c r="K8" s="3">
+        <v>90</v>
       </c>
       <c r="L8" s="2">
-        <v>30.823327599999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+        <v>0.18600000000000003</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
         <v>80.05</v>
       </c>
-      <c r="F9" s="4">
-        <v>35.902999999999999</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="2">
+        <v>0.35902999999999996</v>
+      </c>
+      <c r="E9" s="2">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.30617495700000003</v>
+      </c>
+      <c r="G9" s="7">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.28528269116504401</v>
+      </c>
       <c r="I9" s="2">
         <v>63.66</v>
       </c>
       <c r="J9" s="2">
-        <v>41.05</v>
-      </c>
-      <c r="K9" s="2">
-        <v>55</v>
-      </c>
-      <c r="L9" s="2">
-        <v>30.617495700000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
         <v>89.91</v>
       </c>
-      <c r="F10" s="4">
-        <v>37.615000000000002</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="2">
+        <v>0.37615000000000004</v>
+      </c>
+      <c r="E10" s="2">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.308233276</v>
+      </c>
+      <c r="G10" s="7">
+        <v>90</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.29251673225036201</v>
+      </c>
       <c r="I10" s="2">
         <v>71.13</v>
       </c>
       <c r="J10" s="2">
-        <v>41.737000000000002</v>
-      </c>
-      <c r="K10" s="2">
-        <v>60</v>
-      </c>
-      <c r="L10" s="2">
-        <v>30.823327599999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.41737000000000002</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E11" s="2">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.307204117</v>
+      </c>
+      <c r="G11" s="2">
+        <v>95</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.29726450020567702</v>
+      </c>
       <c r="I11" s="2">
         <v>80.89</v>
       </c>
       <c r="J11" s="2">
-        <v>41.783999999999999</v>
-      </c>
-      <c r="K11" s="2">
-        <v>66</v>
-      </c>
-      <c r="L11" s="2">
-        <v>30.7204117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.41783999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E12" s="2">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.31046312199999998</v>
+      </c>
       <c r="I12" s="2">
         <v>85.89</v>
       </c>
       <c r="J12" s="2">
-        <v>41.360999999999997</v>
-      </c>
-      <c r="K12" s="2">
-        <v>70</v>
-      </c>
-      <c r="L12" s="2">
-        <v>31.046312199999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.41360999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E13" s="2">
+        <v>75</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.311320755</v>
+      </c>
       <c r="I13" s="2">
         <v>89.34</v>
       </c>
       <c r="J13" s="2">
-        <v>42.064999999999998</v>
-      </c>
-      <c r="K13" s="2">
-        <v>75</v>
-      </c>
-      <c r="L13" s="2">
-        <v>31.132075499999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.42064999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E14" s="2">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.314236707</v>
+      </c>
       <c r="I14" s="2">
         <v>95.06</v>
       </c>
       <c r="J14" s="2">
-        <v>42.558</v>
-      </c>
-      <c r="K14" s="2">
-        <v>80</v>
-      </c>
-      <c r="L14" s="2">
-        <v>31.423670699999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K15" s="2">
+        <v>0.42558000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E15" s="2">
         <v>85</v>
       </c>
-      <c r="L15" s="2">
-        <v>31.440823299999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K16" s="2">
+      <c r="F15" s="2">
+        <v>0.31440823299999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E16" s="2">
         <v>90</v>
       </c>
-      <c r="L16" s="2">
-        <v>32.246998300000001</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K17" s="2">
+      <c r="F16" s="2">
+        <v>0.32246998300000002</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="2">
         <v>94</v>
       </c>
-      <c r="L17" s="2">
-        <v>32.5557461</v>
+      <c r="F17" s="2">
+        <v>0.32555746099999999</v>
       </c>
     </row>
   </sheetData>
